--- a/docs/data/news_2026-02-08.xlsx
+++ b/docs/data/news_2026-02-08.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2035,9 +2035,469 @@
         <v>2026-02-08T01:20:47.595Z</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B72" t="str">
+        <v>https://www.scmp.com/news/world/russia-central-asia/article/3342789/ukraines-zelensky-says-us-wants-deal-end-russias-war-june?utm_source=rss_feed</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Ukraine’s Zelensky says US wants deal to end Russia’s war by June</v>
+      </c>
+      <c r="D72" t="str">
+        <v>泽连斯基称美国希望在六月前达成结束俄乌战争的协议，暗示美国可能加大促和力度。</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G72" t="str">
+        <v>2026-02-08T01:22:49.685Z</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B73" t="str">
+        <v>https://www.militarytimes.com/news/your-military/2026/02/07/the-us-armys-quiet-rotation-in-the-philippines/</v>
+      </c>
+      <c r="C73" t="str">
+        <v>The US Army’s quiet rotation in the Philippines</v>
+      </c>
+      <c r="D73" t="str">
+        <v>美军在菲律宾低调轮换部署，可能旨在加强在该地区的军事存在，应对潜在安全挑战。</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G73" t="str">
+        <v>2026-02-08T01:22:49.685Z</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B74" t="str">
+        <v>https://www.defensenews.com/news/your-military/2026/02/07/the-us-armys-quiet-rotation-in-the-philippines/</v>
+      </c>
+      <c r="C74" t="str">
+        <v>The US Army’s quiet rotation in the Philippines</v>
+      </c>
+      <c r="D74" t="str">
+        <v>美军在菲律宾低调轮换部署，可能旨在加强在该地区的军事存在，应对潜在安全挑战。</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G74" t="str">
+        <v>2026-02-08T01:22:49.685Z</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B75" t="str">
+        <v>https://cyprus-mail.com/2026/02/07/iran-says-it-will-strike-american-bases-if-us-attacks</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Iran says it will strike American bases if US attacks</v>
+      </c>
+      <c r="D75" t="str">
+        <v>伊朗警告若美国攻击，将打击美军基地，加剧地区紧张局势，可能引发冲突。</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G75" t="str">
+        <v>2026-02-08T01:22:49.685Z</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B76" t="str">
+        <v>https://in-cyprus.philenews.com/local/uk-deploys-f35-cyprus-akrotiri-iran-tensions/</v>
+      </c>
+      <c r="C76" t="str">
+        <v>UK deploys F-35 fighter jets to Cyprus amid Iran-US tension</v>
+      </c>
+      <c r="D76" t="str">
+        <v>英国在美国和伊朗关系紧张之际，向塞浦路斯部署F-35战斗机，可能旨在加强地区威慑力量。</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G76" t="str">
+        <v>2026-02-08T01:22:49.685Z</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B77" t="str">
+        <v>https://www.scmp.com/news/china/military/article/3342774/black-hawk-drone-new-frontier-us-rivalry-beijing-over-taiwan-strait?utm_source=rss_feed</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Black Hawk to drone: new frontier in US rivalry with Beijing over Taiwan Strait?</v>
+      </c>
+      <c r="D77" t="str">
+        <v>美中在台湾海峡的竞争或扩展到无人机领域，黑鹰直升机与无人机对抗可能成为新焦点。</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+      <c r="F77" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G77" t="str">
+        <v>2026-02-08T01:22:49.685Z</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B78" t="str">
+        <v>https://www.rt.com/russia/632124-meet-ukraines-national-heroes/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C78" t="str">
+        <v>They tortured, murdered, committed ethnic cleansing. Meet Ukraine’s ‘national heroes’</v>
+      </c>
+      <c r="D78" t="str">
+        <v>文章指控乌克兰的“民族英雄”犯有酷刑、谋杀和种族清洗罪行，暗示对乌克兰历史人物的争议性解读。</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G78" t="str">
+        <v>2026-02-08T01:22:49.685Z</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B79" t="str">
+        <v>https://cyprus-mail.com/2026/02/07/as-american-as-chips-can-get-what-are-freedom-fries</v>
+      </c>
+      <c r="C79" t="str">
+        <v>As American as chips can get: what are freedom fries?</v>
+      </c>
+      <c r="D79" t="str">
+        <v>“自由薯条”是2003年因法国反对伊拉克战争，美国餐厅将“法式薯条”改名的政治事件，象征美国爱国主义。</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G79" t="str">
+        <v>2026-02-08T01:22:49.685Z</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B80" t="str">
+        <v>https://in-cyprus.philenews.com/international/sergey-tropin-former-russian-minister-death-moscow/</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Former Russian Deputy Justice Minister found dead in Moscow bathtub</v>
+      </c>
+      <c r="D80" t="str">
+        <v>俄罗斯前司法部副部长在莫斯科浴缸中被发现死亡，死因不明，引发关注。</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G80" t="str">
+        <v>2026-02-08T01:22:49.685Z</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B81" t="str">
+        <v>https://www.bloomberg.com/news/articles/2026-02-07/zelenskiy-says-us-looks-for-deal-ending-russia-s-war-by-june</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Zelenskiy Says US Looks for Deal Ending Russia’s War by June</v>
+      </c>
+      <c r="D81" t="str">
+        <v>泽连斯基称美国寻求在六月前达成结束俄乌战争的协议，但未提供具体证据。</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G81" t="str">
+        <v>2026-02-08T01:22:49.685Z</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B82" t="str">
+        <v>https://tass.com/world/2083469</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Trump genuinely desires to settle conflict with Iran peacefully — US ambassador to Israel</v>
+      </c>
+      <c r="D82" t="str">
+        <v>美国驻以色列大使表示，特朗普真心希望和平解决与伊朗的冲突。</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G82" t="str">
+        <v>2026-02-08T01:22:49.685Z</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B83" t="str">
+        <v>https://cyprus-mail.com/2026/02/05/turkey-is-doing-its-best-to-prevent-us-iran-conflict-erdogan-says</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Turkey is doing its best to prevent US-Iran conflict, Erdogan says</v>
+      </c>
+      <c r="D83" t="str">
+        <v>埃尔多安表示土耳其正尽力阻止美国和伊朗发生冲突。</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+      <c r="F83" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G83" t="str">
+        <v>2026-02-08T01:22:49.685Z</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B84" t="str">
+        <v>https://in-cyprus.philenews.com/local/police-inform-military-bullets-larnaca-hospital-toilets/</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Authorities inform military over bullets found in Larnaca Hospital toilets</v>
+      </c>
+      <c r="D84" t="str">
+        <v>拉纳卡医院厕所发现子弹，当局已通知军方，原因和威胁程度未知。</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G84" t="str">
+        <v>2026-02-08T01:22:49.685Z</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B85" t="str">
+        <v>https://cyprus-mail.com/2026/02/05/cyprus-represented-at-kuwait-talks-on-global-digital-cooperation</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Cyprus represented at Kuwait talks on digital prosperity</v>
+      </c>
+      <c r="D85" t="str">
+        <v>塞浦路斯参加科威特关于数字繁荣的会谈，旨在促进数字经济发展合作。</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G85" t="str">
+        <v>2026-02-08T01:22:49.685Z</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B86" t="str">
+        <v>https://www.militarytimes.com/news/your-military/2026/02/04/us-military-conducts-strikes-on-islamic-state-members-in-syria/</v>
+      </c>
+      <c r="C86" t="str">
+        <v>US military conducts strikes on Islamic State members in Syria</v>
+      </c>
+      <c r="D86" t="str">
+        <v>美军在叙利亚对伊斯兰国成员发动袭击，旨在削弱该恐怖组织在该地区的活动能力。</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G86" t="str">
+        <v>2026-02-08T01:22:49.685Z</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B87" t="str">
+        <v>https://www.bloomberg.com/news/articles/2026-02-04/us-military-hits-islamic-state-targets-in-syria-over-past-week</v>
+      </c>
+      <c r="C87" t="str">
+        <v>US Military Hits Islamic State Targets in Syria Over Past Week</v>
+      </c>
+      <c r="D87" t="str">
+        <v>美军过去一周在叙利亚打击伊斯兰国目标，显示美国持续关注并打击该恐怖组织。</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G87" t="str">
+        <v>2026-02-08T01:22:49.685Z</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B88" t="str">
+        <v>https://www.aljazeera.com/news/2026/2/4/israel-suspends-evacuation-of-palestinians-via-rafah-crossing-red-crescent?traffic_source=rss</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Israeli attacks on Gaza kill 20 in one of deadliest days since ‘ceasefire’</v>
+      </c>
+      <c r="D88" t="str">
+        <v>以色列对加沙的袭击造成20人死亡，是“停火”以来最致命的一天，加剧了地区紧张局势。</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G88" t="str">
+        <v>2026-02-08T01:22:49.685Z</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B89" t="str">
+        <v>https://www.aljazeera.com/news/2026/2/4/greece-woos-israel-for-joint-production-of-weapons-systems?traffic_source=rss</v>
+      </c>
+      <c r="C89" t="str">
+        <v>‘Heavily armed’: Greece, Israel boost military ties amid Gaza genocide</v>
+      </c>
+      <c r="D89" t="str">
+        <v>在加沙冲突背景下，希腊和以色列加强军事合作，提升国防能力，引发地区关注。</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G89" t="str">
+        <v>2026-02-08T01:22:49.685Z</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B90" t="str">
+        <v>https://www.theguardian.com/australia-news/2026/feb/04/israel-president-isaac-herzog-visit-labor-backbenchers</v>
+      </c>
+      <c r="C90" t="str">
+        <v>NSW Labor backbenchers to protest Israel president Isaac Herzog’s visit in defiance of premier</v>
+      </c>
+      <c r="D90" t="str">
+        <v>新南威尔士州工党后座议员将抗议以色列总统伊萨克·赫尔佐格的访问，无视州长的意愿。</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G90" t="str">
+        <v>2026-02-08T01:22:49.685Z</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B91" t="str">
+        <v>https://in-cyprus.philenews.com/international/turkey-aggressively-pursues-blue-homeland-goals-amid-regional-shifts/</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Turkey aggressively pursues “Blue Homeland” goals amid regional shifts</v>
+      </c>
+      <c r="D91" t="str">
+        <v>土耳其在地缘政治变动中积极推行“蓝色家园”战略，可能加剧地区紧张。</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G91" t="str">
+        <v>2026-02-08T01:22:49.685Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G91"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/data/news_2026-02-08.xlsx
+++ b/docs/data/news_2026-02-08.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2495,9 +2495,32 @@
         <v>2026-02-08T01:22:49.685Z</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B92" t="str">
+        <v>https://cyprus-mail.com/2026/02/08/a-social-media-reset-of-politics</v>
+      </c>
+      <c r="C92" t="str">
+        <v>A social media reset of politics</v>
+      </c>
+      <c r="D92" t="str">
+        <v>该新闻讨论了社交媒体对政治的潜在重塑，但具体内容未知。</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G92" t="str">
+        <v>2026-02-08T04:24:33.437Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G91"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G92"/>
   </ignoredErrors>
 </worksheet>
 </file>